--- a/HomeworkFiles/DataFile/StateYlyTempAndLocData.xlsx
+++ b/HomeworkFiles/DataFile/StateYlyTempAndLocData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dangruber/Documents/School/Python Boot Camp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bucha\Documents\PythonBootcamp\bootcamp2020\HomeworkFiles\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D362A23B-0EEA-7D49-8183-CF783B26636D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA493A9-AB92-458F-8711-38526D340791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2540" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StateYlyTempAndLocData" sheetId="1" r:id="rId1"/>
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1015,16 +1015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DX50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:128">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="2" spans="1:128">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="3" spans="1:128">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="4" spans="1:128">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="5" spans="1:128">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="6" spans="1:128">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:128">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="8" spans="1:128">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="9" spans="1:128">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="10" spans="1:128">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="11" spans="1:128">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="12" spans="1:128">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="13" spans="1:128">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="14" spans="1:128">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="15" spans="1:128">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="16" spans="1:128">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="17" spans="1:128">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="18" spans="1:128">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="19" spans="1:128">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:128">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="21" spans="1:128">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="22" spans="1:128">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="23" spans="1:128">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:128">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:128">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="26" spans="1:128">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:128">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="28" spans="1:128">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="29" spans="1:128">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="30" spans="1:128">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:128">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="32" spans="1:128">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="33" spans="1:128">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="34" spans="1:128">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:128">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="36" spans="1:128">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:128">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="38" spans="1:128">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="39" spans="1:128">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="40" spans="1:128">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="41" spans="1:128">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="42" spans="1:128">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="43" spans="1:128">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:128">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="45" spans="1:128">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:128">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="47" spans="1:128">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="48" spans="1:128">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="49" spans="1:128">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="50" spans="1:128">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
